--- a/results/DeterministicUSM/dataset_07/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_07/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.4666666666666667</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="O2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q2">
-        <v>1.386294361119891</v>
+        <v>1.244324099849503</v>
       </c>
       <c r="R2">
-        <v>32.27411277760218</v>
+        <v>41.69298060511689</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>3.470588235294118</v>
       </c>
       <c r="T2">
-        <v>2.272727272727273</v>
+        <v>2.342105263157895</v>
       </c>
       <c r="U2">
-        <v>0.8209805520698303</v>
+        <v>0.8510502100057541</v>
       </c>
       <c r="V2">
-        <v>9.938427854463733</v>
+        <v>18.66009201978135</v>
       </c>
       <c r="W2">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="X2">
         <v>858</v>
       </c>
       <c r="Y2">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="Z2">
-        <v>1.040100250626566</v>
+        <v>1.042635658914729</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.7049180327868853</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="O3">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="Q3">
-        <v>1.622683139184121</v>
+        <v>1.301736973091828</v>
       </c>
       <c r="R3">
-        <v>36.65975291223819</v>
+        <v>50.83573199560238</v>
       </c>
       <c r="S3">
-        <v>5.066666666666666</v>
+        <v>3.675675675675676</v>
       </c>
       <c r="T3">
-        <v>3.15</v>
+        <v>2.354166666666667</v>
       </c>
       <c r="U3">
-        <v>1.147402452837542</v>
+        <v>0.8561868078044496</v>
       </c>
       <c r="V3">
-        <v>20.05195094324917</v>
+        <v>23.90303322538642</v>
       </c>
       <c r="W3">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="X3">
         <v>983</v>
       </c>
       <c r="Y3">
-        <v>922</v>
+        <v>884</v>
       </c>
       <c r="Z3">
-        <v>1.019522776572668</v>
+        <v>1.038461538461539</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.4310344827586207</v>
+        <v>0.7524752475247525</v>
       </c>
       <c r="O4">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="P4">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q4">
-        <v>1.199964782928397</v>
+        <v>1.31633577251298</v>
       </c>
       <c r="R4">
-        <v>28.00088042679008</v>
+        <v>52.29557641701973</v>
       </c>
       <c r="S4">
-        <v>3.32</v>
+        <v>3.72972972972973</v>
       </c>
       <c r="T4">
-        <v>2.666666666666667</v>
+        <v>2.52</v>
       </c>
       <c r="U4">
-        <v>0.9808292530117262</v>
+        <v>0.9242589015233319</v>
       </c>
       <c r="V4">
-        <v>10.28756120482411</v>
+        <v>29.7870549238334</v>
       </c>
       <c r="W4">
-        <v>943</v>
+        <v>892</v>
       </c>
       <c r="X4">
         <v>968</v>
       </c>
       <c r="Y4">
-        <v>910</v>
+        <v>867</v>
       </c>
       <c r="Z4">
-        <v>1.036263736263736</v>
+        <v>1.028835063437139</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I5">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.40625</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="O5">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="P5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q5">
-        <v>1.142097400607849</v>
+        <v>0.9745596399981308</v>
       </c>
       <c r="R5">
-        <v>29.73707798176454</v>
+        <v>40.52642160011215</v>
       </c>
       <c r="S5">
-        <v>3.133333333333333</v>
+        <v>2.65</v>
       </c>
       <c r="T5">
-        <v>1.742857142857143</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="U5">
-        <v>0.5555258026838976</v>
+        <v>1.268511325463507</v>
       </c>
       <c r="V5">
-        <v>6.556596906063582</v>
+        <v>34.7501942124853</v>
       </c>
       <c r="W5">
-        <v>1029</v>
+        <v>986</v>
       </c>
       <c r="X5">
         <v>1055</v>
       </c>
       <c r="Y5">
-        <v>991</v>
+        <v>956</v>
       </c>
       <c r="Z5">
-        <v>1.038345105953582</v>
+        <v>1.031380753138075</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.5797101449275363</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="O6">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="P6">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="Q6">
-        <v>1.841769889802716</v>
+        <v>1.160744069775116</v>
       </c>
       <c r="R6">
-        <v>45.05699143256469</v>
+        <v>53.64130837169397</v>
       </c>
       <c r="S6">
-        <v>6.307692307692307</v>
+        <v>3.192307692307693</v>
       </c>
       <c r="T6">
-        <v>2.428571428571428</v>
+        <v>2.484375</v>
       </c>
       <c r="U6">
-        <v>0.8873031950009027</v>
+        <v>0.9100211188605597</v>
       </c>
       <c r="V6">
-        <v>15.15551053997472</v>
+        <v>36.75864839292418</v>
       </c>
       <c r="W6">
-        <v>940</v>
+        <v>885</v>
       </c>
       <c r="X6">
         <v>980</v>
       </c>
       <c r="Y6">
-        <v>911</v>
+        <v>866</v>
       </c>
       <c r="Z6">
-        <v>1.031833150384193</v>
+        <v>1.021939953810624</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I7">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9069767441860465</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="O7">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Q7">
-        <v>1.754019141245208</v>
+        <v>1.452252328911688</v>
       </c>
       <c r="R7">
-        <v>27.21382772879313</v>
+        <v>40.05044876394287</v>
       </c>
       <c r="S7">
-        <v>5.777777777777778</v>
+        <v>4.272727272727272</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3.344827586206896</v>
       </c>
       <c r="U7">
-        <v>1.386294361119891</v>
+        <v>1.207415148516909</v>
       </c>
       <c r="V7">
-        <v>20.97817330544142</v>
+        <v>32.98496069300965</v>
       </c>
       <c r="W7">
-        <v>849</v>
+        <v>820</v>
       </c>
       <c r="X7">
         <v>888</v>
       </c>
       <c r="Y7">
-        <v>845</v>
+        <v>816</v>
       </c>
       <c r="Z7">
-        <v>1.004733727810651</v>
+        <v>1.004901960784314</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.711864406779661</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="O8">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="P8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="Q8">
-        <v>1.651402111533133</v>
+        <v>1.226787482092107</v>
       </c>
       <c r="R8">
-        <v>35.88037043853615</v>
+        <v>46.15528819840782</v>
       </c>
       <c r="S8">
-        <v>5.214285714285714</v>
+        <v>3.41025641025641</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>2.641025641025641</v>
       </c>
       <c r="U8">
-        <v>1.386294361119891</v>
+        <v>0.9711673420999893</v>
       </c>
       <c r="V8">
-        <v>22.59187894432153</v>
+        <v>26.12447365810041</v>
       </c>
       <c r="W8">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="X8">
         <v>927</v>
       </c>
       <c r="Y8">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="Z8">
-        <v>1.019585253456221</v>
+        <v>1.036014405762305</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I9">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>78</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+      <c r="N9">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="O9">
+        <v>111</v>
+      </c>
+      <c r="P9">
         <v>33</v>
       </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9">
-        <v>42</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>0.1</v>
-      </c>
-      <c r="N9">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="O9">
-        <v>50</v>
-      </c>
-      <c r="P9">
-        <v>8</v>
-      </c>
       <c r="Q9">
-        <v>1.83258146374831</v>
+        <v>1.213022639845854</v>
       </c>
       <c r="R9">
-        <v>27.33934829001352</v>
+        <v>37.97025288508682</v>
       </c>
       <c r="S9">
-        <v>6.25</v>
+        <v>3.363636363636364</v>
       </c>
       <c r="T9">
-        <v>5.125</v>
+        <v>2.9</v>
       </c>
       <c r="U9">
-        <v>1.634130525024472</v>
+        <v>1.064710736992428</v>
       </c>
       <c r="V9">
-        <v>19.92695579980423</v>
+        <v>25.05867789022715</v>
       </c>
       <c r="W9">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="X9">
         <v>803</v>
       </c>
       <c r="Y9">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="Z9">
-        <v>1.011826544021025</v>
+        <v>1.028965517241379</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.6037735849056604</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="P10">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="Q10">
-        <v>1.259542655480747</v>
+        <v>1.145132304303003</v>
       </c>
       <c r="R10">
-        <v>26.54960423490432</v>
+        <v>34.92036934939491</v>
       </c>
       <c r="S10">
-        <v>3.523809523809524</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="T10">
-        <v>2.28</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="U10">
-        <v>0.8241754429663494</v>
+        <v>1.072636802264849</v>
       </c>
       <c r="V10">
-        <v>11.39561392584126</v>
+        <v>33.16716471167089</v>
       </c>
       <c r="W10">
-        <v>717</v>
+        <v>674</v>
       </c>
       <c r="X10">
         <v>749</v>
       </c>
       <c r="Y10">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="Z10">
-        <v>1.030172413793103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
+        <v>105</v>
+      </c>
+      <c r="H11">
         <v>55</v>
       </c>
-      <c r="H11">
-        <v>33</v>
-      </c>
       <c r="I11">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.5116279069767442</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="O11">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="P11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q11">
-        <v>0.8892620594862357</v>
+        <v>0.8415671856782185</v>
       </c>
       <c r="R11">
-        <v>16.32213821541293</v>
+        <v>23.92164071608907</v>
       </c>
       <c r="S11">
-        <v>2.433333333333333</v>
+        <v>2.32</v>
       </c>
       <c r="T11">
-        <v>1.666666666666667</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="U11">
-        <v>0.5108256237659907</v>
+        <v>0.6466271649250525</v>
       </c>
       <c r="V11">
-        <v>5.142754415722305</v>
+        <v>14.43550592912212</v>
       </c>
       <c r="W11">
-        <v>920</v>
+        <v>892</v>
       </c>
       <c r="X11">
         <v>942</v>
       </c>
       <c r="Y11">
-        <v>899</v>
+        <v>876</v>
       </c>
       <c r="Z11">
-        <v>1.023359288097887</v>
+        <v>1.018264840182648</v>
       </c>
     </row>
   </sheetData>
